--- a/docs/info/docs.xlsx
+++ b/docs/info/docs.xlsx
@@ -11,7 +11,8 @@
     <sheet name="docs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$C$1:$C$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">docs!$D$1:$D$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -34,7 +35,7 @@
     <t xml:space="preserve">subject</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
+    <t xml:space="preserve">locked</t>
   </si>
   <si>
     <t xml:space="preserve">info-theory-ps1</t>
@@ -44,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Information Theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">info-theory-ps2</t>
@@ -77,8 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -161,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,7 +169,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,30 +193,26 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -219,83 +222,86 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -303,6 +309,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/info/docs.xlsx
+++ b/docs/info/docs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -38,37 +38,64 @@
     <t xml:space="preserve">locked</t>
   </si>
   <si>
-    <t xml:space="preserve">info-theory-ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Theory PS1</t>
+    <t xml:space="preserve">ps1</t>
   </si>
   <si>
     <t xml:space="preserve">Information Theory</t>
   </si>
   <si>
-    <t xml:space="preserve">info-theory-ps2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Theory PS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info-theory-ps3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Theory PS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info-theory-ps4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Theory PS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info-theory-final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Theory Final</t>
+    <t xml:space="preserve">ps2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l14</t>
   </si>
 </sst>
 </file>
@@ -198,13 +225,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
@@ -231,10 +258,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -243,13 +270,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -258,13 +285,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -273,13 +300,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -288,15 +315,225 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
